--- a/smartWatch_project issue tracker.xlsx
+++ b/smartWatch_project issue tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qhsam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qhsam\Desktop\VHDL-SmartWatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -568,6 +568,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -576,9 +579,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -828,8 +828,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307126448"/>
-        <c:axId val="307128016"/>
+        <c:axId val="124155224"/>
+        <c:axId val="124155608"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1348,7 +1348,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1607,7 +1606,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1723,11 +1721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="307126448"/>
-        <c:axId val="307128016"/>
+        <c:axId val="124155224"/>
+        <c:axId val="124155608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="307126448"/>
+        <c:axId val="124155224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,14 +1773,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307128016"/>
+        <c:crossAx val="124155608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="307128016"/>
+        <c:axId val="124155608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,7 +1790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="307126448"/>
+        <c:crossAx val="124155224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2174,7 +2172,7 @@
   <dimension ref="B1:J107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2194,13 +2192,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
@@ -2215,11 +2213,11 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>

--- a/smartWatch_project issue tracker.xlsx
+++ b/smartWatch_project issue tracker.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Type</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Xst:1896 - Due to other FF/Latch trimming</t>
   </si>
   <si>
-    <t>FF/Latch</t>
-  </si>
-  <si>
-    <t>Clock</t>
-  </si>
-  <si>
     <t>Xst:737 - Found 1-bit latch for signal &lt;blink_flag&lt;7&gt;&gt;.</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
   </si>
   <si>
     <t>PhysDesignRules:372 - Gated clock.</t>
-  </si>
-  <si>
-    <t>Alarm</t>
   </si>
   <si>
     <t>Incompatibility between the alarm and the clock</t>
@@ -171,16 +162,10 @@
     <t>Days of the week seemed not to be working.</t>
   </si>
   <si>
-    <t>Calendar</t>
-  </si>
-  <si>
     <t>In calendar mode, days of the week seemed not to be working. It always displayed an intriguing da:02 no matter if I increment the calendar day or not. Then I understood that I must set it myself :-) Well, what I was expecting is that it determined the day of the week based on the date! Take a look at http://www.wikihow.com/Calculate-the-Day-of-the-Week. It also accepts things like February 31st, 1968, for example. Well, I was expecting an automatic calendar!</t>
   </si>
   <si>
     <t>Unable to reset Stopwatch</t>
-  </si>
-  <si>
-    <t>Stopwatch</t>
   </si>
   <si>
     <t>Brian Liu</t>
@@ -190,9 +175,6 @@
   </si>
   <si>
     <t>no need to set 23 hours has the maximum for the hour</t>
-  </si>
-  <si>
-    <t>Timer</t>
   </si>
   <si>
     <t xml:space="preserve">It should be possible to set, for example 99 hours and 59 minutes as the maximum time and decrease it until reach zero.
@@ -239,6 +221,15 @@
       </rPr>
       <t xml:space="preserve"> ISSUE TRACKER</t>
     </r>
+  </si>
+  <si>
+    <t>Gated Clock</t>
+  </si>
+  <si>
+    <t>Trimming</t>
+  </si>
+  <si>
+    <t>Behaviour</t>
   </si>
 </sst>
 </file>
@@ -757,64 +748,64 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,8 +819,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124155224"/>
-        <c:axId val="124155608"/>
+        <c:axId val="312198752"/>
+        <c:axId val="312196400"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1230,64 +1221,64 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,6 +1339,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1606,6 +1598,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1647,64 +1640,64 @@
                   <c:v>2.2800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,11 +1714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124155224"/>
-        <c:axId val="124155608"/>
+        <c:axId val="312198752"/>
+        <c:axId val="312196400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="124155224"/>
+        <c:axId val="312198752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,14 +1766,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124155608"/>
+        <c:crossAx val="312196400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124155608"/>
+        <c:axId val="312196400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +1783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124155224"/>
+        <c:crossAx val="312198752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2171,8 +2164,8 @@
   </sheetPr>
   <dimension ref="B1:J107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2193,7 +2186,7 @@
     <row r="1" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -2277,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>13</v>
@@ -2289,12 +2282,16 @@
         <v>42405</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="H17" s="15">
+        <v>42411</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="J17" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2305,21 +2302,21 @@
         <v>27</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="15">
         <v>42405</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="13"/>
       <c r="J18" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2327,10 +2324,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>14</v>
@@ -2339,12 +2336,16 @@
         <v>42405</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="H19" s="15">
+        <v>42411</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="J19" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2352,10 +2353,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>13</v>
@@ -2364,12 +2365,16 @@
         <v>42405</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="H20" s="15">
+        <v>42411</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="J20" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2377,10 +2382,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>13</v>
@@ -2389,12 +2394,12 @@
         <v>42405</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="13"/>
       <c r="J21" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2402,10 +2407,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>15</v>
@@ -2414,16 +2419,16 @@
         <v>42405</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H22" s="15">
         <v>42407</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2431,10 +2436,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>15</v>
@@ -2443,16 +2448,16 @@
         <v>42405</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H23" s="15">
         <v>42409</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3407,7 +3412,7 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
@@ -3469,7 +3474,7 @@
       </c>
       <c r="N16" t="str">
         <f t="array" ref="N16">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N15, 'Issue Tracker'!$D$17:$D$107),0))</f>
-        <v>Clock</v>
+        <v>Gated Clock</v>
       </c>
       <c r="O16" t="str">
         <f t="array" ref="O16">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O15,'Issue Tracker'!$E$17:$E$107),0))</f>
@@ -3502,11 +3507,11 @@
       </c>
       <c r="N17" t="str">
         <f t="array" ref="N17">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N16, 'Issue Tracker'!$D$17:$D$107),0))</f>
-        <v>FF/Latch</v>
+        <v>Trimming</v>
       </c>
       <c r="O17" t="str">
         <f t="array" ref="O17">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O16,'Issue Tracker'!$E$17:$E$107),0))</f>
-        <v>Medium</v>
+        <v>Low</v>
       </c>
       <c r="S17" t="str">
         <f t="array" aca="1" ref="S17" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(2:2)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
@@ -3539,11 +3544,11 @@
       </c>
       <c r="O18" t="str">
         <f t="array" ref="O18">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O17,'Issue Tracker'!$E$17:$E$107),0))</f>
-        <v>Low</v>
+        <v>Medium</v>
       </c>
       <c r="S18" t="str">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(3:3)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Alarm</v>
+        <v>Behaviour</v>
       </c>
       <c r="T18" t="str">
         <f t="array" aca="1" ref="T18" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(3:3)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -3568,7 +3573,7 @@
       </c>
       <c r="N19" t="str">
         <f t="array" ref="N19">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N18, 'Issue Tracker'!$D$17:$D$107),0))</f>
-        <v>Alarm</v>
+        <v>Behaviour</v>
       </c>
       <c r="O19">
         <f t="array" ref="O19">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O18,'Issue Tracker'!$E$17:$E$107),0))</f>
@@ -3576,7 +3581,7 @@
       </c>
       <c r="S19" t="str">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(4:4)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Calendar</v>
+        <v>Gated Clock</v>
       </c>
       <c r="T19" t="str">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(4:4)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -3599,9 +3604,9 @@
         <f>J19+COUNTIFS('Issue Tracker'!$H$17:$H$107,H20,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
         <v>0</v>
       </c>
-      <c r="N20" t="str">
+      <c r="N20">
         <f t="array" ref="N20">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N19, 'Issue Tracker'!$D$17:$D$107),0))</f>
-        <v>Calendar</v>
+        <v>0</v>
       </c>
       <c r="O20" t="e">
         <f t="array" ref="O20">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O19,'Issue Tracker'!$E$17:$E$107),0))</f>
@@ -3609,7 +3614,7 @@
       </c>
       <c r="S20" t="str">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(5:5)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Clock</v>
+        <v>Latch</v>
       </c>
       <c r="T20" t="str">
         <f t="array" aca="1" ref="T20" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(5:5)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -3632,9 +3637,9 @@
         <f>J20+COUNTIFS('Issue Tracker'!$H$17:$H$107,H21,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
         <v>0</v>
       </c>
-      <c r="N21" t="str">
+      <c r="N21" t="e">
         <f t="array" ref="N21">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N20, 'Issue Tracker'!$D$17:$D$107),0))</f>
-        <v>Stopwatch</v>
+        <v>#N/A</v>
       </c>
       <c r="O21" t="e">
         <f t="array" ref="O21">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O20,'Issue Tracker'!$E$17:$E$107),0))</f>
@@ -3642,7 +3647,7 @@
       </c>
       <c r="S21" t="str">
         <f t="array" aca="1" ref="S21" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(6:6)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>FF/Latch</v>
+        <v>Trimming</v>
       </c>
       <c r="T21" t="e">
         <f t="array" aca="1" ref="T21" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(6:6)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -3665,17 +3670,17 @@
         <f>J21+COUNTIFS('Issue Tracker'!$H$17:$H$107,H22,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
         <v>1</v>
       </c>
-      <c r="N22" t="str">
+      <c r="N22" t="e">
         <f t="array" ref="N22">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N21, 'Issue Tracker'!$D$17:$D$107),0))</f>
-        <v>Timer</v>
+        <v>#N/A</v>
       </c>
       <c r="O22" t="e">
         <f t="array" ref="O22">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O21,'Issue Tracker'!$E$17:$E$107),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S22" t="str">
+      <c r="S22" t="e">
         <f t="array" aca="1" ref="S22" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(7:7)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Latch</v>
+        <v>#NUM!</v>
       </c>
       <c r="T22" t="e">
         <f t="array" aca="1" ref="T22" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(7:7)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -3698,17 +3703,17 @@
         <f>J22+COUNTIFS('Issue Tracker'!$H$17:$H$107,H23,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="e">
         <f t="array" ref="N23">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N22, 'Issue Tracker'!$D$17:$D$107),0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="O23" t="e">
         <f t="array" ref="O23">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O22,'Issue Tracker'!$E$17:$E$107),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S23" t="str">
+      <c r="S23" t="e">
         <f t="array" aca="1" ref="S23" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(8:8)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Stopwatch</v>
+        <v>#NUM!</v>
       </c>
       <c r="T23" t="e">
         <f t="array" aca="1" ref="T23" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(8:8)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -3739,9 +3744,9 @@
         <f t="array" ref="O24">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O23,'Issue Tracker'!$E$17:$E$107),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S24" t="str">
+      <c r="S24" t="e">
         <f t="array" aca="1" ref="S24" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(9:9)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Timer</v>
+        <v>#NUM!</v>
       </c>
       <c r="T24" t="e">
         <f t="array" aca="1" ref="T24" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(9:9)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -3795,7 +3800,7 @@
       </c>
       <c r="J26">
         <f>J25+COUNTIFS('Issue Tracker'!$H$17:$H$107,H26,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N26" t="e">
         <f t="array" ref="N26">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N25, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3828,7 +3833,7 @@
       </c>
       <c r="J27">
         <f>J26+COUNTIFS('Issue Tracker'!$H$17:$H$107,H27,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N27" t="e">
         <f t="array" ref="N27">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N26, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3861,7 +3866,7 @@
       </c>
       <c r="J28">
         <f>J27+COUNTIFS('Issue Tracker'!$H$17:$H$107,H28,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N28" t="e">
         <f t="array" ref="N28">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N27, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3894,7 +3899,7 @@
       </c>
       <c r="J29">
         <f>J28+COUNTIFS('Issue Tracker'!$H$17:$H$107,H29,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N29" t="e">
         <f t="array" ref="N29">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N28, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3927,7 +3932,7 @@
       </c>
       <c r="J30">
         <f>J29+COUNTIFS('Issue Tracker'!$H$17:$H$107,H30,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N30" t="e">
         <f t="array" ref="N30">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N29, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3960,7 +3965,7 @@
       </c>
       <c r="J31">
         <f>J30+COUNTIFS('Issue Tracker'!$H$17:$H$107,H31,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N31" t="e">
         <f t="array" ref="N31">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N30, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3993,7 +3998,7 @@
       </c>
       <c r="J32">
         <f>J31+COUNTIFS('Issue Tracker'!$H$17:$H$107,H32,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32" t="e">
         <f t="array" ref="N32">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N31, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4026,7 +4031,7 @@
       </c>
       <c r="J33">
         <f>J32+COUNTIFS('Issue Tracker'!$H$17:$H$107,H33,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N33" t="e">
         <f t="array" ref="N33">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N32, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4059,7 +4064,7 @@
       </c>
       <c r="J34">
         <f>J33+COUNTIFS('Issue Tracker'!$H$17:$H$107,H34,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N34" t="e">
         <f t="array" ref="N34">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N33, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4092,7 +4097,7 @@
       </c>
       <c r="J35">
         <f>J34+COUNTIFS('Issue Tracker'!$H$17:$H$107,H35,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N35" t="e">
         <f t="array" ref="N35">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N34, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4125,7 +4130,7 @@
       </c>
       <c r="J36">
         <f>J35+COUNTIFS('Issue Tracker'!$H$17:$H$107,H36,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N36" t="e">
         <f t="array" ref="N36">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N35, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4158,7 +4163,7 @@
       </c>
       <c r="J37">
         <f>J36+COUNTIFS('Issue Tracker'!$H$17:$H$107,H37,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N37" t="e">
         <f t="array" ref="N37">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N36, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4191,7 +4196,7 @@
       </c>
       <c r="J38">
         <f>J37+COUNTIFS('Issue Tracker'!$H$17:$H$107,H38,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N38" t="e">
         <f t="array" ref="N38">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N37, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4224,7 +4229,7 @@
       </c>
       <c r="J39">
         <f>J38+COUNTIFS('Issue Tracker'!$H$17:$H$107,H39,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N39" t="e">
         <f t="array" ref="N39">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N38, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4257,7 +4262,7 @@
       </c>
       <c r="J40">
         <f>J39+COUNTIFS('Issue Tracker'!$H$17:$H$107,H40,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N40" t="e">
         <f t="array" ref="N40">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N39, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4290,7 +4295,7 @@
       </c>
       <c r="J41">
         <f>J40+COUNTIFS('Issue Tracker'!$H$17:$H$107,H41,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N41" t="e">
         <f t="array" ref="N41">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N40, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4323,7 +4328,7 @@
       </c>
       <c r="J42">
         <f>J41+COUNTIFS('Issue Tracker'!$H$17:$H$107,H42,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N42" t="e">
         <f t="array" ref="N42">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N41, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4356,7 +4361,7 @@
       </c>
       <c r="J43">
         <f>J42+COUNTIFS('Issue Tracker'!$H$17:$H$107,H43,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N43" t="e">
         <f t="array" ref="N43">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N42, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4389,7 +4394,7 @@
       </c>
       <c r="J44">
         <f>J43+COUNTIFS('Issue Tracker'!$H$17:$H$107,H44,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N44" t="e">
         <f t="array" ref="N44">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N43, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4422,7 +4427,7 @@
       </c>
       <c r="J45">
         <f>J44+COUNTIFS('Issue Tracker'!$H$17:$H$107,H45,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N45" t="e">
         <f t="array" ref="N45">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N44, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4455,7 +4460,7 @@
       </c>
       <c r="J46">
         <f>J45+COUNTIFS('Issue Tracker'!$H$17:$H$107,H46,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="7:20" x14ac:dyDescent="0.35">
@@ -4472,7 +4477,7 @@
       </c>
       <c r="J47">
         <f>J46+COUNTIFS('Issue Tracker'!$H$17:$H$107,H47,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="7:20" x14ac:dyDescent="0.35">
@@ -4489,7 +4494,7 @@
       </c>
       <c r="J48">
         <f>J47+COUNTIFS('Issue Tracker'!$H$17:$H$107,H48,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.35">
@@ -4506,7 +4511,7 @@
       </c>
       <c r="J49">
         <f>J48+COUNTIFS('Issue Tracker'!$H$17:$H$107,H49,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.35">
@@ -4523,7 +4528,7 @@
       </c>
       <c r="J50">
         <f>J49+COUNTIFS('Issue Tracker'!$H$17:$H$107,H50,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.35">
@@ -4540,7 +4545,7 @@
       </c>
       <c r="J51">
         <f>J50+COUNTIFS('Issue Tracker'!$H$17:$H$107,H51,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.35">
@@ -4557,7 +4562,7 @@
       </c>
       <c r="J52">
         <f>J51+COUNTIFS('Issue Tracker'!$H$17:$H$107,H52,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.35">
@@ -4574,7 +4579,7 @@
       </c>
       <c r="J53">
         <f>J52+COUNTIFS('Issue Tracker'!$H$17:$H$107,H53,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.35">
@@ -4591,7 +4596,7 @@
       </c>
       <c r="J54">
         <f>J53+COUNTIFS('Issue Tracker'!$H$17:$H$107,H54,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.35">
@@ -4608,7 +4613,7 @@
       </c>
       <c r="J55">
         <f>J54+COUNTIFS('Issue Tracker'!$H$17:$H$107,H55,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.35">
@@ -4625,7 +4630,7 @@
       </c>
       <c r="J56">
         <f>J55+COUNTIFS('Issue Tracker'!$H$17:$H$107,H56,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.35">
@@ -4642,7 +4647,7 @@
       </c>
       <c r="J57">
         <f>J56+COUNTIFS('Issue Tracker'!$H$17:$H$107,H57,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.35">
@@ -4659,7 +4664,7 @@
       </c>
       <c r="J58">
         <f>J57+COUNTIFS('Issue Tracker'!$H$17:$H$107,H58,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.35">
@@ -4676,7 +4681,7 @@
       </c>
       <c r="J59">
         <f>J58+COUNTIFS('Issue Tracker'!$H$17:$H$107,H59,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.35">
@@ -4693,7 +4698,7 @@
       </c>
       <c r="J60">
         <f>J59+COUNTIFS('Issue Tracker'!$H$17:$H$107,H60,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.35">
@@ -4710,7 +4715,7 @@
       </c>
       <c r="J61">
         <f>J60+COUNTIFS('Issue Tracker'!$H$17:$H$107,H61,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.35">
@@ -4727,7 +4732,7 @@
       </c>
       <c r="J62">
         <f>J61+COUNTIFS('Issue Tracker'!$H$17:$H$107,H62,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.35">
@@ -4744,7 +4749,7 @@
       </c>
       <c r="J63">
         <f>J62+COUNTIFS('Issue Tracker'!$H$17:$H$107,H63,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.35">
@@ -4761,7 +4766,7 @@
       </c>
       <c r="J64">
         <f>J63+COUNTIFS('Issue Tracker'!$H$17:$H$107,H64,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.35">
@@ -4778,7 +4783,7 @@
       </c>
       <c r="J65">
         <f>J64+COUNTIFS('Issue Tracker'!$H$17:$H$107,H65,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.35">
@@ -4795,7 +4800,7 @@
       </c>
       <c r="J66">
         <f>J65+COUNTIFS('Issue Tracker'!$H$17:$H$107,H66,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.35">
@@ -4812,7 +4817,7 @@
       </c>
       <c r="J67">
         <f>J66+COUNTIFS('Issue Tracker'!$H$17:$H$107,H67,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.35">
@@ -4829,7 +4834,7 @@
       </c>
       <c r="J68">
         <f>J67+COUNTIFS('Issue Tracker'!$H$17:$H$107,H68,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.35">
@@ -4846,7 +4851,7 @@
       </c>
       <c r="J69">
         <f>J68+COUNTIFS('Issue Tracker'!$H$17:$H$107,H69,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.35">
@@ -4863,7 +4868,7 @@
       </c>
       <c r="J70">
         <f>J69+COUNTIFS('Issue Tracker'!$H$17:$H$107,H70,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.35">
@@ -4880,7 +4885,7 @@
       </c>
       <c r="J71">
         <f>J70+COUNTIFS('Issue Tracker'!$H$17:$H$107,H71,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.35">
@@ -4897,7 +4902,7 @@
       </c>
       <c r="J72">
         <f>J71+COUNTIFS('Issue Tracker'!$H$17:$H$107,H72,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.35">
@@ -4914,7 +4919,7 @@
       </c>
       <c r="J73">
         <f>J72+COUNTIFS('Issue Tracker'!$H$17:$H$107,H73,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="7:10" x14ac:dyDescent="0.35">
@@ -4931,7 +4936,7 @@
       </c>
       <c r="J74">
         <f>J73+COUNTIFS('Issue Tracker'!$H$17:$H$107,H74,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="7:10" x14ac:dyDescent="0.35">
@@ -4948,7 +4953,7 @@
       </c>
       <c r="J75">
         <f>J74+COUNTIFS('Issue Tracker'!$H$17:$H$107,H75,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.35">
@@ -4965,7 +4970,7 @@
       </c>
       <c r="J76">
         <f>J75+COUNTIFS('Issue Tracker'!$H$17:$H$107,H76,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.35">
@@ -4982,7 +4987,7 @@
       </c>
       <c r="J77">
         <f>J76+COUNTIFS('Issue Tracker'!$H$17:$H$107,H77,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="7:10" x14ac:dyDescent="0.35">
@@ -4999,7 +5004,7 @@
       </c>
       <c r="J78">
         <f>J77+COUNTIFS('Issue Tracker'!$H$17:$H$107,H78,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.35">
@@ -5016,7 +5021,7 @@
       </c>
       <c r="J79">
         <f>J78+COUNTIFS('Issue Tracker'!$H$17:$H$107,H79,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.35">
@@ -5033,7 +5038,7 @@
       </c>
       <c r="J80">
         <f>J79+COUNTIFS('Issue Tracker'!$H$17:$H$107,H80,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/smartWatch_project issue tracker.xlsx
+++ b/smartWatch_project issue tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qhsam\Desktop\VHDL-SmartWatch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qhsam\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Type</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Xst:737 - Found 1-bit latch for signal &lt;blink_flag&lt;7&gt;&gt;.</t>
   </si>
   <si>
-    <t>Latch</t>
-  </si>
-  <si>
     <t>Manuel</t>
   </si>
   <si>
@@ -140,29 +137,7 @@
     <t>Incompatibility between the alarm and the clock</t>
   </si>
   <si>
-    <t xml:space="preserve">clock goes from 01:00 to 24:59 (normally they go between 00:00 and 23:59), but alarm can be set between 00:00 and 00:59. If you select 00:01 for example, the alarm never goes on. In the same way, the alarm cannot be set between 24:00 and 24:59. You should correct the clock to run between 00:00 and 23:59. </t>
-  </si>
-  <si>
-    <t>Clock net MODUL_SET&lt;4&gt; is sourced by a combinatorial pin. This is not good design practice. Use the CE pin to control the loading of data into the flip-flop.
-The eternal gate clock problem. The system clock must be applied to all registers inside your design, to keep it synchronous. Remember: "Avoid asynchronous design; practice synchronous design until a better methodology comes along".
-Otherwise you will receive the famous Gated clock warning. Take a look at the Discussion forum post about this subject. After, review the way the up/down counter was implemented in the first course week. Again, check the Discussion forum to look at the up/down counter VHDL files. Notice that to reduce the frequency of the up/down counter we generate a clock enable pulse to be applied to the register. We don't create a slow clock signal using counters to apply it to the clock register input. We create a signal - clock enable (CE) - that inhibits the application of the clock signal to the register, except for one period each x"FFFFF" cycles (or each 16777215 pulses, around 168ms interval).</t>
-  </si>
-  <si>
-    <t>A lot of warnings state that: 
-Xst:1896 - Due to other FF/Latch trimming, FF/Latch &lt;timer_md/hours_7&gt; has a constant value of 0 in block &lt;smtWatch&gt;. This FF/Latch will be trimmed during the optimization process.
-It seems that you declared signals that you are not effectively being use or whose values never change.
-There are also warnings about incomplete case statements that end up generating latches. This can be easily avoided if you end up your incomplete case statements with 
-when others =&gt;
-sequential statements;</t>
-  </si>
-  <si>
-    <t>Xst:737 - Found 1-bit latch for signal &lt;blink_flag&lt;7&gt;&gt;. Latches may be generated from incomplete case or if statements. We do not recommend the use of latches in FPGA/CPLD designs, as they may lead to timing problems.</t>
-  </si>
-  <si>
     <t>Days of the week seemed not to be working.</t>
-  </si>
-  <si>
-    <t>In calendar mode, days of the week seemed not to be working. It always displayed an intriguing da:02 no matter if I increment the calendar day or not. Then I understood that I must set it myself :-) Well, what I was expecting is that it determined the day of the week based on the date! Take a look at http://www.wikihow.com/Calculate-the-Day-of-the-Week. It also accepts things like February 31st, 1968, for example. Well, I was expecting an automatic calendar!</t>
   </si>
   <si>
     <t>Unable to reset Stopwatch</t>
@@ -171,14 +146,187 @@
     <t>Brian Liu</t>
   </si>
   <si>
-    <t xml:space="preserve">it can be reset by first press Button 2 from timing state to enter pause state (the led will blink) then press Button 3, it will be reset to Zero. </t>
-  </si>
-  <si>
     <t>no need to set 23 hours has the maximum for the hour</t>
   </si>
   <si>
-    <t xml:space="preserve">It should be possible to set, for example 99 hours and 59 minutes as the maximum time and decrease it until reach zero.
+    <t>Behaviour</t>
+  </si>
+  <si>
+    <t>Zhili Shao</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESOLVED :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Clock net MODUL_SET&lt;4&gt; is sourced by a combinatorial pin. This is not good design practice. Use the CE pin to control the loading of data into the flip-flop.
+The eternal gate clock problem. The system clock must be applied to all registers inside your design, to keep it synchronous. Remember: "Avoid asynchronous design; practice synchronous design until a better methodology comes along".
+Otherwise you will receive the famous Gated clock warning. Take a look at the Discussion forum post about this subject. After, review the way the up/down counter was implemented in the first course week. Again, check the Discussion forum to look at the up/down counter VHDL files. Notice that to reduce the frequency of the up/down counter we generate a clock enable pulse to be applied to the register. We don't create a slow clock signal using counters to apply it to the clock register input. We create a signal - clock enable (CE) - that inhibits the application of the clock signal to the register, except for one period each x"FFFFF" cycles (or each 16777215 pulses, around 168ms interval).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RESOLVED: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A lot of warnings state that: 
+Xst:1896 - Due to other FF/Latch trimming, FF/Latch &lt;timer_md/hours_7&gt; has a constant value of 0 in block &lt;smtWatch&gt;. This FF/Latch will be trimmed during the optimization process.
+It seems that you declared signals that you are not effectively being use or whose values never change.
+There are also warnings about incomplete case statements that end up generating latches. This can be easily avoided if you end up your incomplete case statements with 
+when others =&gt;
+sequential statements;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RESOLVED: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Xst:737 - Found 1-bit latch for signal &lt;blink_flag&lt;7&gt;&gt;. Latches may be generated from incomplete case or if statements. We do not recommend the use of latches in FPGA/CPLD designs, as they may lead to timing problems.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RESOLVED: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">clock goes from 01:00 to 24:59 (normally they go between 00:00 and 23:59), but alarm can be set between 00:00 and 00:59. If you select 00:01 for example, the alarm never goes on. In the same way, the alarm cannot be set between 24:00 and 24:59. You should correct the clock to run between 00:00 and 23:59. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ON_GOING: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In calendar mode, days of the week seemed not to be working. It always displayed an intriguing da:02 no matter if I increment the calendar day or not. Then I understood that I must set it myself :-) Well, what I was expecting is that it determined the day of the week based on the date! Take a look at http://www.wikihow.com/Calculate-the-Day-of-the-Week. It also accepts things like February 31st, 1968, for example. Well, I was expecting an automatic calendar!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESOLVED:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Now it can be reset by first press Button 2 from timing state to enter pause state (the led will blink) then press Button 3, it will be reset to Zero. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RESOLVED: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It should be possible to set, for example 99 hours and 59 minutes as the maximum time and decrease it until reach zero.
 </t>
+    </r>
+  </si>
+  <si>
+    <t>Latch Waring</t>
+  </si>
+  <si>
+    <t>Trimming Warning</t>
+  </si>
+  <si>
+    <t>Gated Clock Warning</t>
   </si>
   <si>
     <r>
@@ -189,7 +337,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>SmartWatch VHDL Project by Group 4 
+      <t>First Assignment VHDL Project by Group 4 
 OPEN</t>
     </r>
     <r>
@@ -222,21 +370,12 @@
       <t xml:space="preserve"> ISSUE TRACKER</t>
     </r>
   </si>
-  <si>
-    <t>Gated Clock</t>
-  </si>
-  <si>
-    <t>Trimming</t>
-  </si>
-  <si>
-    <t>Behaviour</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -375,6 +514,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -498,7 +651,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -557,6 +710,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,76 +901,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,8 +984,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="312198752"/>
-        <c:axId val="312196400"/>
+        <c:axId val="320476672"/>
+        <c:axId val="320475104"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1209,76 +1374,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,76 +1793,76 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.2800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.28</c:v>
+                  <c:v>4.28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.28</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1714,11 +1879,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="312198752"/>
-        <c:axId val="312196400"/>
+        <c:axId val="320476672"/>
+        <c:axId val="320475104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="312198752"/>
+        <c:axId val="320476672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,14 +1931,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312196400"/>
+        <c:crossAx val="320475104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="312196400"/>
+        <c:axId val="320475104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +1948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312198752"/>
+        <c:crossAx val="320476672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2164,8 +2329,8 @@
   </sheetPr>
   <dimension ref="B1:J107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2185,13 +2350,13 @@
   <sheetData>
     <row r="1" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
@@ -2206,11 +2371,11 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2270,10 +2435,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>13</v>
@@ -2282,16 +2447,16 @@
         <v>42405</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="15">
         <v>42411</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2302,7 +2467,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>15</v>
@@ -2311,12 +2476,16 @@
         <v>42405</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="H18" s="15">
+        <v>42412</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="J18" s="19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2327,7 +2496,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>14</v>
@@ -2336,16 +2505,16 @@
         <v>42405</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="15">
-        <v>42411</v>
+        <v>42412</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2353,53 +2522,55 @@
         <v>4</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" s="15">
         <v>42405</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="15">
         <v>42411</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="13">
+      <c r="B21" s="20">
         <v>5</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="22">
+        <v>42405</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="15">
-        <v>42405</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="18" t="s">
-        <v>38</v>
+      <c r="J21" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2407,10 +2578,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>15</v>
@@ -2419,16 +2590,16 @@
         <v>42405</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="15">
-        <v>42407</v>
+        <v>42410</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2436,10 +2607,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>15</v>
@@ -2448,16 +2619,16 @@
         <v>42405</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="15">
         <v>42409</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3412,7 +3583,7 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
@@ -3474,7 +3645,7 @@
       </c>
       <c r="N16" t="str">
         <f t="array" ref="N16">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N15, 'Issue Tracker'!$D$17:$D$107),0))</f>
-        <v>Gated Clock</v>
+        <v>Gated Clock Warning</v>
       </c>
       <c r="O16" t="str">
         <f t="array" ref="O16">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O15,'Issue Tracker'!$E$17:$E$107),0))</f>
@@ -3507,7 +3678,7 @@
       </c>
       <c r="N17" t="str">
         <f t="array" ref="N17">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N16, 'Issue Tracker'!$D$17:$D$107),0))</f>
-        <v>Trimming</v>
+        <v>Trimming Warning</v>
       </c>
       <c r="O17" t="str">
         <f t="array" ref="O17">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O16,'Issue Tracker'!$E$17:$E$107),0))</f>
@@ -3540,7 +3711,7 @@
       </c>
       <c r="N18" t="str">
         <f t="array" ref="N18">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N17, 'Issue Tracker'!$D$17:$D$107),0))</f>
-        <v>Latch</v>
+        <v>Latch Waring</v>
       </c>
       <c r="O18" t="str">
         <f t="array" ref="O18">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O17,'Issue Tracker'!$E$17:$E$107),0))</f>
@@ -3548,7 +3719,7 @@
       </c>
       <c r="S18" t="str">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(3:3)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Behaviour</v>
+        <v>Algorithm</v>
       </c>
       <c r="T18" t="str">
         <f t="array" aca="1" ref="T18" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(3:3)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -3581,7 +3752,7 @@
       </c>
       <c r="S19" t="str">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(4:4)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Gated Clock</v>
+        <v>Behaviour</v>
       </c>
       <c r="T19" t="str">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(4:4)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -3604,9 +3775,9 @@
         <f>J19+COUNTIFS('Issue Tracker'!$H$17:$H$107,H20,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="str">
         <f t="array" ref="N20">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N19, 'Issue Tracker'!$D$17:$D$107),0))</f>
-        <v>0</v>
+        <v>Algorithm</v>
       </c>
       <c r="O20" t="e">
         <f t="array" ref="O20">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O19,'Issue Tracker'!$E$17:$E$107),0))</f>
@@ -3614,7 +3785,7 @@
       </c>
       <c r="S20" t="str">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(5:5)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Latch</v>
+        <v>Gated Clock Warning</v>
       </c>
       <c r="T20" t="str">
         <f t="array" aca="1" ref="T20" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(5:5)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -3637,9 +3808,9 @@
         <f>J20+COUNTIFS('Issue Tracker'!$H$17:$H$107,H21,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
         <v>0</v>
       </c>
-      <c r="N21" t="e">
+      <c r="N21">
         <f t="array" ref="N21">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N20, 'Issue Tracker'!$D$17:$D$107),0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="O21" t="e">
         <f t="array" ref="O21">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O20,'Issue Tracker'!$E$17:$E$107),0))</f>
@@ -3647,7 +3818,7 @@
       </c>
       <c r="S21" t="str">
         <f t="array" aca="1" ref="S21" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(6:6)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Trimming</v>
+        <v>Latch Waring</v>
       </c>
       <c r="T21" t="e">
         <f t="array" aca="1" ref="T21" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(6:6)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -3668,7 +3839,7 @@
       </c>
       <c r="J22">
         <f>J21+COUNTIFS('Issue Tracker'!$H$17:$H$107,H22,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="e">
         <f t="array" ref="N22">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N21, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3678,9 +3849,9 @@
         <f t="array" ref="O22">INDEX('Issue Tracker'!$E$17:$E$107,MATCH(0,COUNTIF(O$15:O21,'Issue Tracker'!$E$17:$E$107),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S22" t="e">
+      <c r="S22" t="str">
         <f t="array" aca="1" ref="S22" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(7:7)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Trimming Warning</v>
       </c>
       <c r="T22" t="e">
         <f t="array" aca="1" ref="T22" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(7:7)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -3701,7 +3872,7 @@
       </c>
       <c r="J23">
         <f>J22+COUNTIFS('Issue Tracker'!$H$17:$H$107,H23,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="e">
         <f t="array" ref="N23">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N22, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3734,7 +3905,7 @@
       </c>
       <c r="J24">
         <f>J23+COUNTIFS('Issue Tracker'!$H$17:$H$107,H24,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" t="e">
         <f t="array" ref="N24">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N23, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3800,7 +3971,7 @@
       </c>
       <c r="J26">
         <f>J25+COUNTIFS('Issue Tracker'!$H$17:$H$107,H26,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="e">
         <f t="array" ref="N26">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N25, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3833,7 +4004,7 @@
       </c>
       <c r="J27">
         <f>J26+COUNTIFS('Issue Tracker'!$H$17:$H$107,H27,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N27" t="e">
         <f t="array" ref="N27">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N26, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3866,7 +4037,7 @@
       </c>
       <c r="J28">
         <f>J27+COUNTIFS('Issue Tracker'!$H$17:$H$107,H28,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N28" t="e">
         <f t="array" ref="N28">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N27, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3899,7 +4070,7 @@
       </c>
       <c r="J29">
         <f>J28+COUNTIFS('Issue Tracker'!$H$17:$H$107,H29,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N29" t="e">
         <f t="array" ref="N29">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N28, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3932,7 +4103,7 @@
       </c>
       <c r="J30">
         <f>J29+COUNTIFS('Issue Tracker'!$H$17:$H$107,H30,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N30" t="e">
         <f t="array" ref="N30">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N29, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3965,7 +4136,7 @@
       </c>
       <c r="J31">
         <f>J30+COUNTIFS('Issue Tracker'!$H$17:$H$107,H31,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N31" t="e">
         <f t="array" ref="N31">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N30, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -3998,7 +4169,7 @@
       </c>
       <c r="J32">
         <f>J31+COUNTIFS('Issue Tracker'!$H$17:$H$107,H32,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N32" t="e">
         <f t="array" ref="N32">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N31, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4031,7 +4202,7 @@
       </c>
       <c r="J33">
         <f>J32+COUNTIFS('Issue Tracker'!$H$17:$H$107,H33,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N33" t="e">
         <f t="array" ref="N33">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N32, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4064,7 +4235,7 @@
       </c>
       <c r="J34">
         <f>J33+COUNTIFS('Issue Tracker'!$H$17:$H$107,H34,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N34" t="e">
         <f t="array" ref="N34">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N33, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4097,7 +4268,7 @@
       </c>
       <c r="J35">
         <f>J34+COUNTIFS('Issue Tracker'!$H$17:$H$107,H35,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N35" t="e">
         <f t="array" ref="N35">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N34, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4130,7 +4301,7 @@
       </c>
       <c r="J36">
         <f>J35+COUNTIFS('Issue Tracker'!$H$17:$H$107,H36,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N36" t="e">
         <f t="array" ref="N36">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N35, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4163,7 +4334,7 @@
       </c>
       <c r="J37">
         <f>J36+COUNTIFS('Issue Tracker'!$H$17:$H$107,H37,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N37" t="e">
         <f t="array" ref="N37">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N36, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4196,7 +4367,7 @@
       </c>
       <c r="J38">
         <f>J37+COUNTIFS('Issue Tracker'!$H$17:$H$107,H38,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N38" t="e">
         <f t="array" ref="N38">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N37, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4229,7 +4400,7 @@
       </c>
       <c r="J39">
         <f>J38+COUNTIFS('Issue Tracker'!$H$17:$H$107,H39,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N39" t="e">
         <f t="array" ref="N39">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N38, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4262,7 +4433,7 @@
       </c>
       <c r="J40">
         <f>J39+COUNTIFS('Issue Tracker'!$H$17:$H$107,H40,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N40" t="e">
         <f t="array" ref="N40">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N39, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4295,7 +4466,7 @@
       </c>
       <c r="J41">
         <f>J40+COUNTIFS('Issue Tracker'!$H$17:$H$107,H41,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N41" t="e">
         <f t="array" ref="N41">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N40, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4328,7 +4499,7 @@
       </c>
       <c r="J42">
         <f>J41+COUNTIFS('Issue Tracker'!$H$17:$H$107,H42,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N42" t="e">
         <f t="array" ref="N42">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N41, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4361,7 +4532,7 @@
       </c>
       <c r="J43">
         <f>J42+COUNTIFS('Issue Tracker'!$H$17:$H$107,H43,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N43" t="e">
         <f t="array" ref="N43">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N42, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4394,7 +4565,7 @@
       </c>
       <c r="J44">
         <f>J43+COUNTIFS('Issue Tracker'!$H$17:$H$107,H44,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N44" t="e">
         <f t="array" ref="N44">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N43, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4427,7 +4598,7 @@
       </c>
       <c r="J45">
         <f>J44+COUNTIFS('Issue Tracker'!$H$17:$H$107,H45,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N45" t="e">
         <f t="array" ref="N45">INDEX('Issue Tracker'!$D$17:$D$107,MATCH(0,COUNTIF(N$15:N44, 'Issue Tracker'!$D$17:$D$107),0))</f>
@@ -4460,7 +4631,7 @@
       </c>
       <c r="J46">
         <f>J45+COUNTIFS('Issue Tracker'!$H$17:$H$107,H46,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="7:20" x14ac:dyDescent="0.35">
@@ -4477,7 +4648,7 @@
       </c>
       <c r="J47">
         <f>J46+COUNTIFS('Issue Tracker'!$H$17:$H$107,H47,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="7:20" x14ac:dyDescent="0.35">
@@ -4494,7 +4665,7 @@
       </c>
       <c r="J48">
         <f>J47+COUNTIFS('Issue Tracker'!$H$17:$H$107,H48,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.35">
@@ -4511,7 +4682,7 @@
       </c>
       <c r="J49">
         <f>J48+COUNTIFS('Issue Tracker'!$H$17:$H$107,H49,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.35">
@@ -4528,7 +4699,7 @@
       </c>
       <c r="J50">
         <f>J49+COUNTIFS('Issue Tracker'!$H$17:$H$107,H50,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.35">
@@ -4545,7 +4716,7 @@
       </c>
       <c r="J51">
         <f>J50+COUNTIFS('Issue Tracker'!$H$17:$H$107,H51,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.35">
@@ -4562,7 +4733,7 @@
       </c>
       <c r="J52">
         <f>J51+COUNTIFS('Issue Tracker'!$H$17:$H$107,H52,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.35">
@@ -4579,7 +4750,7 @@
       </c>
       <c r="J53">
         <f>J52+COUNTIFS('Issue Tracker'!$H$17:$H$107,H53,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.35">
@@ -4596,7 +4767,7 @@
       </c>
       <c r="J54">
         <f>J53+COUNTIFS('Issue Tracker'!$H$17:$H$107,H54,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.35">
@@ -4613,7 +4784,7 @@
       </c>
       <c r="J55">
         <f>J54+COUNTIFS('Issue Tracker'!$H$17:$H$107,H55,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.35">
@@ -4630,7 +4801,7 @@
       </c>
       <c r="J56">
         <f>J55+COUNTIFS('Issue Tracker'!$H$17:$H$107,H56,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.35">
@@ -4647,7 +4818,7 @@
       </c>
       <c r="J57">
         <f>J56+COUNTIFS('Issue Tracker'!$H$17:$H$107,H57,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.35">
@@ -4664,7 +4835,7 @@
       </c>
       <c r="J58">
         <f>J57+COUNTIFS('Issue Tracker'!$H$17:$H$107,H58,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.35">
@@ -4681,7 +4852,7 @@
       </c>
       <c r="J59">
         <f>J58+COUNTIFS('Issue Tracker'!$H$17:$H$107,H59,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.35">
@@ -4698,7 +4869,7 @@
       </c>
       <c r="J60">
         <f>J59+COUNTIFS('Issue Tracker'!$H$17:$H$107,H60,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.35">
@@ -4715,7 +4886,7 @@
       </c>
       <c r="J61">
         <f>J60+COUNTIFS('Issue Tracker'!$H$17:$H$107,H61,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.35">
@@ -4732,7 +4903,7 @@
       </c>
       <c r="J62">
         <f>J61+COUNTIFS('Issue Tracker'!$H$17:$H$107,H62,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.35">
@@ -4749,7 +4920,7 @@
       </c>
       <c r="J63">
         <f>J62+COUNTIFS('Issue Tracker'!$H$17:$H$107,H63,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.35">
@@ -4766,7 +4937,7 @@
       </c>
       <c r="J64">
         <f>J63+COUNTIFS('Issue Tracker'!$H$17:$H$107,H64,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.35">
@@ -4783,7 +4954,7 @@
       </c>
       <c r="J65">
         <f>J64+COUNTIFS('Issue Tracker'!$H$17:$H$107,H65,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.35">
@@ -4800,7 +4971,7 @@
       </c>
       <c r="J66">
         <f>J65+COUNTIFS('Issue Tracker'!$H$17:$H$107,H66,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.35">
@@ -4817,7 +4988,7 @@
       </c>
       <c r="J67">
         <f>J66+COUNTIFS('Issue Tracker'!$H$17:$H$107,H67,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.35">
@@ -4834,7 +5005,7 @@
       </c>
       <c r="J68">
         <f>J67+COUNTIFS('Issue Tracker'!$H$17:$H$107,H68,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.35">
@@ -4851,7 +5022,7 @@
       </c>
       <c r="J69">
         <f>J68+COUNTIFS('Issue Tracker'!$H$17:$H$107,H69,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.35">
@@ -4868,7 +5039,7 @@
       </c>
       <c r="J70">
         <f>J69+COUNTIFS('Issue Tracker'!$H$17:$H$107,H70,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.35">
@@ -4885,7 +5056,7 @@
       </c>
       <c r="J71">
         <f>J70+COUNTIFS('Issue Tracker'!$H$17:$H$107,H71,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.35">
@@ -4902,7 +5073,7 @@
       </c>
       <c r="J72">
         <f>J71+COUNTIFS('Issue Tracker'!$H$17:$H$107,H72,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.35">
@@ -4919,7 +5090,7 @@
       </c>
       <c r="J73">
         <f>J72+COUNTIFS('Issue Tracker'!$H$17:$H$107,H73,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="7:10" x14ac:dyDescent="0.35">
@@ -4936,7 +5107,7 @@
       </c>
       <c r="J74">
         <f>J73+COUNTIFS('Issue Tracker'!$H$17:$H$107,H74,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="7:10" x14ac:dyDescent="0.35">
@@ -4953,7 +5124,7 @@
       </c>
       <c r="J75">
         <f>J74+COUNTIFS('Issue Tracker'!$H$17:$H$107,H75,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.35">
@@ -4970,7 +5141,7 @@
       </c>
       <c r="J76">
         <f>J75+COUNTIFS('Issue Tracker'!$H$17:$H$107,H76,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.35">
@@ -4987,7 +5158,7 @@
       </c>
       <c r="J77">
         <f>J76+COUNTIFS('Issue Tracker'!$H$17:$H$107,H77,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="7:10" x14ac:dyDescent="0.35">
@@ -5004,7 +5175,7 @@
       </c>
       <c r="J78">
         <f>J77+COUNTIFS('Issue Tracker'!$H$17:$H$107,H78,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.35">
@@ -5021,7 +5192,7 @@
       </c>
       <c r="J79">
         <f>J78+COUNTIFS('Issue Tracker'!$H$17:$H$107,H79,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.35">
@@ -5038,7 +5209,7 @@
       </c>
       <c r="J80">
         <f>J79+COUNTIFS('Issue Tracker'!$H$17:$H$107,H80,'Issue Tracker'!$D$17:$D$107,type,'Issue Tracker'!$E$17:$E$107,priority)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
